--- a/data/trans_bre/P14B23-Habitat-trans_bre.xlsx
+++ b/data/trans_bre/P14B23-Habitat-trans_bre.xlsx
@@ -618,7 +618,7 @@
         <v>6.190807645811358</v>
       </c>
       <c r="E4" s="5" t="n">
-        <v>1.216702929177783</v>
+        <v>1.216702929177785</v>
       </c>
       <c r="F4" s="6" t="n">
         <v>3.637292893275347</v>
@@ -627,7 +627,7 @@
         <v>3.396433756165886</v>
       </c>
       <c r="H4" s="6" t="n">
-        <v>0.2176526062151553</v>
+        <v>0.2176526062151556</v>
       </c>
     </row>
     <row r="5">
@@ -638,22 +638,22 @@
         </is>
       </c>
       <c r="C5" s="5" t="n">
-        <v>4.961006992033425</v>
+        <v>4.793540076144218</v>
       </c>
       <c r="D5" s="5" t="n">
-        <v>4.041874118640997</v>
+        <v>3.918137374819024</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>-1.302459057087962</v>
+        <v>-1.210344610616853</v>
       </c>
       <c r="F5" s="6" t="n">
-        <v>1.750884608347625</v>
+        <v>1.552725274932465</v>
       </c>
       <c r="G5" s="6" t="n">
-        <v>1.532470240582823</v>
+        <v>1.380330245728652</v>
       </c>
       <c r="H5" s="6" t="n">
-        <v>-0.1836629212005343</v>
+        <v>-0.1816253199641071</v>
       </c>
     </row>
     <row r="6">
@@ -664,22 +664,22 @@
         </is>
       </c>
       <c r="C6" s="5" t="n">
-        <v>9.72323969451501</v>
+        <v>9.591392104580615</v>
       </c>
       <c r="D6" s="5" t="n">
-        <v>8.813455298237844</v>
+        <v>8.856535189670483</v>
       </c>
       <c r="E6" s="5" t="n">
-        <v>3.565777076100975</v>
+        <v>3.301207514514168</v>
       </c>
       <c r="F6" s="6" t="n">
-        <v>7.972431334171835</v>
+        <v>7.393061978373766</v>
       </c>
       <c r="G6" s="6" t="n">
-        <v>8.141041044409354</v>
+        <v>9.302213670932762</v>
       </c>
       <c r="H6" s="6" t="n">
-        <v>0.8695135720551928</v>
+        <v>0.7540525647261618</v>
       </c>
     </row>
     <row r="7">
@@ -700,7 +700,7 @@
         <v>4.558112978820617</v>
       </c>
       <c r="E7" s="5" t="n">
-        <v>4.648376768426512</v>
+        <v>4.648376768426514</v>
       </c>
       <c r="F7" s="6" t="n">
         <v>1.890910380500898</v>
@@ -720,22 +720,22 @@
         </is>
       </c>
       <c r="C8" s="5" t="n">
-        <v>3.285914895496225</v>
+        <v>3.299664320085325</v>
       </c>
       <c r="D8" s="5" t="n">
-        <v>2.907678290992517</v>
+        <v>3.024634661556752</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>2.984345139529311</v>
+        <v>3.171375785338697</v>
       </c>
       <c r="F8" s="6" t="n">
-        <v>0.81514819951173</v>
+        <v>0.8642721188285508</v>
       </c>
       <c r="G8" s="6" t="n">
-        <v>1.31687743257486</v>
+        <v>1.301653262371558</v>
       </c>
       <c r="H8" s="6" t="n">
-        <v>0.9004861908508843</v>
+        <v>0.9188865866673899</v>
       </c>
     </row>
     <row r="9">
@@ -746,22 +746,22 @@
         </is>
       </c>
       <c r="C9" s="5" t="n">
-        <v>7.283173054626664</v>
+        <v>7.539526322658414</v>
       </c>
       <c r="D9" s="5" t="n">
-        <v>6.285866768179213</v>
+        <v>6.572512721835552</v>
       </c>
       <c r="E9" s="5" t="n">
-        <v>6.142989876843806</v>
+        <v>6.448907116665992</v>
       </c>
       <c r="F9" s="6" t="n">
-        <v>3.371199981857476</v>
+        <v>3.525800502812147</v>
       </c>
       <c r="G9" s="6" t="n">
-        <v>5.858880434809639</v>
+        <v>6.057975987387776</v>
       </c>
       <c r="H9" s="6" t="n">
-        <v>3.394336220472392</v>
+        <v>3.5798501597239</v>
       </c>
     </row>
     <row r="10">
@@ -802,22 +802,22 @@
         </is>
       </c>
       <c r="C11" s="5" t="n">
-        <v>2.758887601806457</v>
+        <v>2.807915677947149</v>
       </c>
       <c r="D11" s="5" t="n">
-        <v>2.184829267623268</v>
+        <v>2.236657264001611</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>3.840324832245176</v>
+        <v>3.888489522673622</v>
       </c>
       <c r="F11" s="6" t="n">
-        <v>0.7181607914443977</v>
+        <v>0.6930678880579305</v>
       </c>
       <c r="G11" s="6" t="n">
-        <v>0.5628289236794253</v>
+        <v>0.6749949145510639</v>
       </c>
       <c r="H11" s="6" t="n">
-        <v>0.7715236418378424</v>
+        <v>0.7721601834214515</v>
       </c>
     </row>
     <row r="12">
@@ -828,22 +828,22 @@
         </is>
       </c>
       <c r="C12" s="5" t="n">
-        <v>7.366933300885902</v>
+        <v>7.54697213778613</v>
       </c>
       <c r="D12" s="5" t="n">
-        <v>6.905366343775975</v>
+        <v>6.540252110206198</v>
       </c>
       <c r="E12" s="5" t="n">
-        <v>8.717815245133703</v>
+        <v>8.432603242656521</v>
       </c>
       <c r="F12" s="6" t="n">
-        <v>5.283156364267859</v>
+        <v>5.788126209709471</v>
       </c>
       <c r="G12" s="6" t="n">
-        <v>4.070882439491845</v>
+        <v>4.0502542562693</v>
       </c>
       <c r="H12" s="6" t="n">
-        <v>3.730911975296007</v>
+        <v>3.47641648126881</v>
       </c>
     </row>
     <row r="13">
@@ -864,7 +864,7 @@
         <v>4.257855577093532</v>
       </c>
       <c r="E13" s="5" t="n">
-        <v>4.088753472499454</v>
+        <v>4.088753472499455</v>
       </c>
       <c r="F13" s="6" t="n">
         <v>1.832619143926922</v>
@@ -873,7 +873,7 @@
         <v>1.996811327128201</v>
       </c>
       <c r="H13" s="6" t="n">
-        <v>0.9294656762866457</v>
+        <v>0.929465676286646</v>
       </c>
     </row>
     <row r="14">
@@ -884,22 +884,22 @@
         </is>
       </c>
       <c r="C14" s="5" t="n">
-        <v>3.138330348728882</v>
+        <v>2.987906695271741</v>
       </c>
       <c r="D14" s="5" t="n">
-        <v>2.677057301741802</v>
+        <v>2.398757233894655</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>2.210684172912807</v>
+        <v>1.967181153919294</v>
       </c>
       <c r="F14" s="6" t="n">
-        <v>0.8815836348107923</v>
+        <v>0.7366973941731488</v>
       </c>
       <c r="G14" s="6" t="n">
-        <v>0.9683973436969628</v>
+        <v>0.7483107098873331</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>0.3844499875127352</v>
+        <v>0.3399762635780825</v>
       </c>
     </row>
     <row r="15">
@@ -910,22 +910,22 @@
         </is>
       </c>
       <c r="C15" s="5" t="n">
-        <v>7.144695422280615</v>
+        <v>7.069472758970043</v>
       </c>
       <c r="D15" s="5" t="n">
-        <v>6.228206613263318</v>
+        <v>6.052450195983639</v>
       </c>
       <c r="E15" s="5" t="n">
-        <v>5.913510370882011</v>
+        <v>6.030664155308481</v>
       </c>
       <c r="F15" s="6" t="n">
-        <v>3.622856473183382</v>
+        <v>3.489898616409659</v>
       </c>
       <c r="G15" s="6" t="n">
-        <v>4.168584970281427</v>
+        <v>3.92978110294643</v>
       </c>
       <c r="H15" s="6" t="n">
-        <v>1.746225431911299</v>
+        <v>1.774645430346219</v>
       </c>
     </row>
     <row r="16">
@@ -966,22 +966,22 @@
         </is>
       </c>
       <c r="C17" s="5" t="n">
-        <v>4.471922951789979</v>
+        <v>4.342358732881772</v>
       </c>
       <c r="D17" s="5" t="n">
-        <v>3.769161659766806</v>
+        <v>3.713551499470915</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>3.243373132751834</v>
+        <v>3.091048000640029</v>
       </c>
       <c r="F17" s="6" t="n">
-        <v>1.504247634276505</v>
+        <v>1.475586430618031</v>
       </c>
       <c r="G17" s="6" t="n">
-        <v>1.575791655180129</v>
+        <v>1.547651009631086</v>
       </c>
       <c r="H17" s="6" t="n">
-        <v>0.735016877091253</v>
+        <v>0.701644403120059</v>
       </c>
     </row>
     <row r="18">
@@ -992,22 +992,22 @@
         </is>
       </c>
       <c r="C18" s="5" t="n">
-        <v>6.712350857960255</v>
+        <v>6.586241186278831</v>
       </c>
       <c r="D18" s="5" t="n">
-        <v>5.777872674229664</v>
+        <v>5.735678050789888</v>
       </c>
       <c r="E18" s="5" t="n">
-        <v>5.152665753454074</v>
+        <v>5.247479068541011</v>
       </c>
       <c r="F18" s="6" t="n">
-        <v>3.212383743676012</v>
+        <v>3.11714383168095</v>
       </c>
       <c r="G18" s="6" t="n">
-        <v>3.530876085565824</v>
+        <v>3.473399771265586</v>
       </c>
       <c r="H18" s="6" t="n">
-        <v>1.544381687045321</v>
+        <v>1.599989169076884</v>
       </c>
     </row>
     <row r="19">
